--- a/public/assets/contact_template.xlsx
+++ b/public/assets/contact_template.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buddhikaprasanna/Documents/Devy/NationWide/nationwide-ui/public/assets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BCCEBFC-AF9D-5849-B64A-BDAE78EF5E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-4120" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Basic Information</t>
   </si>
@@ -28,27 +37,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID Number </t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>Street Address</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>ZIP or Postal Code</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -56,32 +44,119 @@
   </si>
   <si>
     <t>Job Title</t>
+  </si>
+  <si>
+    <t>Middle Initial</t>
+  </si>
+  <si>
+    <t>Other Name</t>
+  </si>
+  <si>
+    <t>Home Phone</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Work Phone</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>City or State</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>Eligibility Status</t>
+  </si>
+  <si>
+    <t>Primary Language</t>
+  </si>
+  <si>
+    <t>Preferred Method</t>
+  </si>
+  <si>
+    <t>Primary Number</t>
+  </si>
+  <si>
+    <t>Best Time To Call</t>
+  </si>
+  <si>
+    <t>Time Zone</t>
+  </si>
+  <si>
+    <t>Credit Score</t>
+  </si>
+  <si>
+    <t>Credit Report Type</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>dl</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>employer</t>
+  </si>
+  <si>
+    <t>occ</t>
+  </si>
+  <si>
+    <t>EMP Length M</t>
+  </si>
+  <si>
+    <t>EMP Length Y</t>
+  </si>
+  <si>
+    <t>Mortage Balance</t>
+  </si>
+  <si>
+    <t>Home Value</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -90,42 +165,49 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -315,93 +397,196 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="17.13"/>
-    <col customWidth="1" min="12" max="12" width="15.88"/>
-    <col customWidth="1" min="13" max="13" width="16.75"/>
+    <col min="2" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="33" style="3" customWidth="1"/>
+    <col min="15" max="15" width="19.1640625" customWidth="1"/>
+    <col min="34" max="34" width="15.83203125" customWidth="1"/>
+    <col min="35" max="35" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="AI1" s="5"/>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="O2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="AI2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3">
-      <c r="F3" s="3"/>
+    <row r="3" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+      <c r="AE3" s="1"/>
     </row>
-    <row r="4">
-      <c r="F4" s="3"/>
+    <row r="4" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+      <c r="AE4" s="1"/>
     </row>
-    <row r="5">
-      <c r="F5" s="3"/>
+    <row r="5" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+      <c r="AE5" s="1"/>
     </row>
-    <row r="6">
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="F7" s="3"/>
+    <row r="6" spans="1:35" ht="13" x14ac:dyDescent="0.15">
+      <c r="AE6" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/assets/contact_template.xlsx
+++ b/public/assets/contact_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/buddhikaprasanna/Documents/Devy/NationWide/nationwide-ui/public/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BCCEBFC-AF9D-5849-B64A-BDAE78EF5E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0395F745-78C5-6A4D-8FFF-19CE937EED0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4120" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Basic Information</t>
   </si>
   <si>
-    <t>Job Information</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
@@ -37,15 +34,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>Job Title</t>
-  </si>
-  <si>
     <t>Middle Initial</t>
   </si>
   <si>
@@ -70,74 +58,80 @@
     <t>Address 2</t>
   </si>
   <si>
-    <t>City or State</t>
-  </si>
-  <si>
     <t>ZIP</t>
   </si>
   <si>
-    <t>Eligibility Status</t>
-  </si>
-  <si>
     <t>Primary Language</t>
   </si>
   <si>
-    <t>Preferred Method</t>
-  </si>
-  <si>
-    <t>Primary Number</t>
-  </si>
-  <si>
-    <t>Best Time To Call</t>
-  </si>
-  <si>
     <t>Time Zone</t>
   </si>
   <si>
     <t>Credit Score</t>
   </si>
   <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>SSN</t>
+  </si>
+  <si>
+    <t>dl</t>
+  </si>
+  <si>
+    <t>employer</t>
+  </si>
+  <si>
+    <t>occ</t>
+  </si>
+  <si>
+    <t>marital Status</t>
+  </si>
+  <si>
+    <t>Do You Rent Or Own</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>employment Status</t>
+  </si>
+  <si>
+    <t>emp Length M</t>
+  </si>
+  <si>
+    <t>emp Length Y</t>
+  </si>
+  <si>
+    <t>Best Time to Call</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
     <t>Credit Report Type</t>
   </si>
   <si>
-    <t>DOB</t>
-  </si>
-  <si>
-    <t>SSN</t>
-  </si>
-  <si>
-    <t>dl</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>employer</t>
-  </si>
-  <si>
-    <t>occ</t>
-  </si>
-  <si>
-    <t>EMP Length M</t>
-  </si>
-  <si>
-    <t>EMP Length Y</t>
-  </si>
-  <si>
-    <t>Mortage Balance</t>
+    <t>Mortgage Payment</t>
+  </si>
+  <si>
+    <t>Mortgage Balance</t>
   </si>
   <si>
     <t>Home Value</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>state_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -159,6 +153,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -177,10 +178,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -189,8 +191,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -407,22 +411,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="AH3" sqref="A3:AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="33" style="3" customWidth="1"/>
-    <col min="15" max="15" width="19.1640625" customWidth="1"/>
-    <col min="34" max="34" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" customWidth="1"/>
+    <col min="32" max="32" width="15.1640625" customWidth="1"/>
+    <col min="33" max="33" width="16" customWidth="1"/>
     <col min="35" max="35" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -458,135 +464,133 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
       <c r="AG1" s="5"/>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="5"/>
+    </row>
+    <row r="2" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AI1" s="5"/>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="1:34" ht="13" x14ac:dyDescent="0.15">
+      <c r="E3" s="6"/>
+      <c r="AH3" s="1"/>
     </row>
-    <row r="3" spans="1:35" ht="13" x14ac:dyDescent="0.15">
-      <c r="AE3" s="1"/>
+    <row r="4" spans="1:34" ht="13" x14ac:dyDescent="0.15">
+      <c r="E4" s="6"/>
+      <c r="AH4" s="1"/>
     </row>
-    <row r="4" spans="1:35" ht="13" x14ac:dyDescent="0.15">
-      <c r="AE4" s="1"/>
+    <row r="5" spans="1:34" ht="13" x14ac:dyDescent="0.15">
+      <c r="E5" s="6"/>
+      <c r="AH5" s="1"/>
     </row>
-    <row r="5" spans="1:35" ht="13" x14ac:dyDescent="0.15">
-      <c r="AE5" s="1"/>
-    </row>
-    <row r="6" spans="1:35" ht="13" x14ac:dyDescent="0.15">
-      <c r="AE6" s="1"/>
+    <row r="6" spans="1:34" ht="13" x14ac:dyDescent="0.15">
+      <c r="E6" s="6"/>
+      <c r="AH6" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>